--- a/excel/O3.xlsx
+++ b/excel/O3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0AB8F-9E9F-4810-87AB-E6B9D14BAB90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="-16515" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="8925" yWindow="-16515" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="250">
   <si>
     <t>城市</t>
   </si>
@@ -768,10 +769,6 @@
   </si>
   <si>
     <t>西藏</t>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LATB</t>
@@ -783,7 +780,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1140,11 +1137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="I221" sqref="A221:I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1176,10 +1173,10 @@
         <v>2017</v>
       </c>
       <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
         <v>249</v>
-      </c>
-      <c r="I1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -7270,31 +7267,6 @@
       </c>
       <c r="I220">
         <v>91.111891</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>248</v>
-      </c>
-      <c r="C221">
-        <f>MAX(C2:C220)</f>
-        <v>205</v>
-      </c>
-      <c r="D221">
-        <f t="shared" ref="D221:F221" si="0">MAX(D2:D220)</f>
-        <v>198</v>
-      </c>
-      <c r="E221">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="G221">
-        <f>MAX(G2:G220)</f>
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/excel/O3.xlsx
+++ b/excel/O3.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/files/code/web-heat-map/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0AB8F-9E9F-4810-87AB-E6B9D14BAB90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="-16515" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3980" yWindow="-16000" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -780,7 +782,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1137,14 +1139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="I221" sqref="A221:I221"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -7272,6 +7274,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>